--- a/text/FIG1 WITH BATCH.xlsx
+++ b/text/FIG1 WITH BATCH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="295">
   <si>
     <t>BATCH</t>
   </si>
@@ -242,9 +242,6 @@
     <t>MURI 51</t>
   </si>
   <si>
-    <t>MURI 52 (NA)</t>
-  </si>
-  <si>
     <t>Gluconate Experiment</t>
   </si>
   <si>
@@ -758,9 +755,6 @@
     <t>MURI 141</t>
   </si>
   <si>
-    <t>MURI 106 (NA)</t>
-  </si>
-  <si>
     <t>MURI 109 (NA)</t>
   </si>
   <si>
@@ -779,9 +773,6 @@
     <t>MURI 115 (NA)</t>
   </si>
   <si>
-    <t>MURI 110 (NA)</t>
-  </si>
-  <si>
     <t>MURI 111 (NA)</t>
   </si>
   <si>
@@ -798,9 +789,6 @@
   </si>
   <si>
     <t>MURI 117 (NA)</t>
-  </si>
-  <si>
-    <t>MURI 57 (NA)</t>
   </si>
   <si>
     <t>New data sent by Dr Barrick</t>
@@ -1454,7 +1442,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1635,9 +1623,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1647,122 +1632,131 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="119">
@@ -2215,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2229,17 +2223,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" thickBot="1">
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:15" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="4" t="s">
@@ -2257,21 +2251,21 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="93" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95" t="s">
+      <c r="L2" s="80"/>
+      <c r="M2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="96"/>
+      <c r="N2" s="82"/>
     </row>
     <row r="3" spans="1:15" ht="16" thickBot="1">
       <c r="A3" s="2"/>
@@ -2289,16 +2283,16 @@
       <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="76" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="16">
@@ -2333,10 +2327,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1">
-      <c r="A5" s="71"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="79"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="17">
         <v>8</v>
       </c>
@@ -2369,10 +2363,10 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="79"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="17">
         <v>9</v>
       </c>
@@ -2405,10 +2399,10 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="71"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="79"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
@@ -2444,10 +2438,10 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="71"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="79"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="48" t="s">
         <v>38</v>
       </c>
@@ -2483,10 +2477,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="16" thickBot="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="79"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="48" t="s">
         <v>2</v>
       </c>
@@ -2522,10 +2516,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="16" thickBot="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="79"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="17">
         <v>7</v>
       </c>
@@ -2558,10 +2552,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16" thickBot="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="79"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="17">
         <v>8</v>
       </c>
@@ -2594,10 +2588,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16" thickBot="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="80"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="18">
         <v>9</v>
       </c>
@@ -2690,16 +2684,16 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:15" ht="16" thickBot="1">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="76" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="19">
@@ -2734,10 +2728,10 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16" thickBot="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="79"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="20">
         <v>8</v>
       </c>
@@ -2770,10 +2764,10 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="71"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="79"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="20">
         <v>9</v>
       </c>
@@ -2798,7 +2792,7 @@
       <c r="L19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="65" t="s">
+      <c r="M19" s="64" t="s">
         <v>71</v>
       </c>
       <c r="N19" s="11" t="s">
@@ -2806,10 +2800,10 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="71"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="79"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="46" t="s">
         <v>2</v>
       </c>
@@ -2845,10 +2839,10 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="71"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="79"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="46" t="s">
         <v>38</v>
       </c>
@@ -2884,10 +2878,10 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="16" thickBot="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="79"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="46" t="s">
         <v>2</v>
       </c>
@@ -2923,10 +2917,10 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="16" thickBot="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="79"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="20">
         <v>7</v>
       </c>
@@ -2959,10 +2953,10 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="16" thickBot="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="79"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="20">
         <v>8</v>
       </c>
@@ -2995,15 +2989,15 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="16" thickBot="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="80"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="21">
         <v>9</v>
       </c>
-      <c r="F25" s="64" t="s">
-        <v>73</v>
+      <c r="F25" s="106" t="s">
+        <v>62</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>63</v>
@@ -3017,8 +3011,8 @@
       <c r="J25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>259</v>
+      <c r="K25" s="107" t="s">
+        <v>67</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>68</v>
@@ -3126,68 +3120,68 @@
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="16" thickBot="1">
-      <c r="A34" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="85" t="s">
+      <c r="A34" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="76" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="22">
         <v>19</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" thickBot="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="79"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="23">
         <v>20</v>
       </c>
       <c r="F35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="36" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="36" spans="1:8" ht="16" thickBot="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="79"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="77"/>
       <c r="E36" s="23">
         <v>21</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="45" customHeight="1" thickBot="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="79"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G37" s="53">
         <v>27</v>
@@ -3197,48 +3191,48 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" thickBot="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="79"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="23">
         <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="29" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="39" spans="1:8" ht="16" thickBot="1">
-      <c r="A39" s="71"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="79"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="23">
         <v>20</v>
       </c>
       <c r="F39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="29" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="40" spans="1:8" ht="16" thickBot="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="80"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="24">
         <v>21</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3270,68 +3264,68 @@
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:8" ht="16" thickBot="1">
-      <c r="A45" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="85" t="s">
+      <c r="A45" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="78" t="s">
+      <c r="D45" s="76" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="25">
         <v>16</v>
       </c>
       <c r="F45" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="36" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="46" spans="1:8" ht="16" thickBot="1">
-      <c r="A46" s="71"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="79"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="26">
         <v>17</v>
       </c>
       <c r="F46" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="36" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="47" spans="1:8" ht="16" thickBot="1">
-      <c r="A47" s="71"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="79"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="26">
         <v>18</v>
       </c>
       <c r="F47" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="G47" s="39" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="48" spans="1:8" ht="39" customHeight="1" thickBot="1">
-      <c r="A48" s="71"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="79"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G48" s="53">
         <v>29</v>
@@ -3341,77 +3335,77 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="16" thickBot="1">
-      <c r="A49" s="71"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="79"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="26">
         <v>16</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G49" s="29" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="50" spans="1:14" ht="16" thickBot="1">
-      <c r="A50" s="71"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="79"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="26">
         <v>17</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G50" s="29" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="51" spans="1:14" ht="16" thickBot="1">
-      <c r="A51" s="73"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="80"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="78"/>
       <c r="E51" s="27">
         <v>18</v>
       </c>
       <c r="F51" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="31" t="s">
         <v>82</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="16" thickBot="1"/>
     <row r="56" spans="1:14" ht="38" customHeight="1" thickBot="1">
       <c r="E56" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="88" t="s">
+      <c r="G56" s="105"/>
+      <c r="H56" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="89"/>
-      <c r="H56" s="83" t="s">
+      <c r="I56" s="97"/>
+      <c r="J56" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="I56" s="84"/>
-      <c r="J56" s="83" t="s">
+      <c r="K56" s="97"/>
+      <c r="L56" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="K56" s="84"/>
-      <c r="L56" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="M56" s="84"/>
+      <c r="M56" s="97"/>
     </row>
     <row r="57" spans="1:14" ht="80" thickBot="1">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="68"/>
+      <c r="B57" s="98"/>
       <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3457,276 +3451,276 @@
       <c r="M58" s="32"/>
     </row>
     <row r="59" spans="1:14" ht="16" customHeight="1" thickBot="1">
-      <c r="A59" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="75" t="s">
+      <c r="A59" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="99"/>
+      <c r="C59" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="85" t="s">
+      <c r="D59" s="73" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="16">
         <v>13</v>
       </c>
       <c r="F59" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I59" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J59" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="K59" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="L59" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="G59" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I59" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="J59" s="66" t="s">
-        <v>289</v>
-      </c>
-      <c r="K59" s="57" t="s">
+      <c r="M59" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="L59" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="M59" s="36" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="60" spans="1:14" ht="16" thickBot="1">
-      <c r="A60" s="71"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="86"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="74"/>
       <c r="E60" s="17">
         <v>14</v>
       </c>
       <c r="F60" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G60" s="36" t="s">
+      <c r="I60" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="J60" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="K60" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="J60" s="36" t="s">
+      <c r="L60" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K60" s="57" t="s">
+      <c r="M60" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="L60" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="M60" s="36" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="16" thickBot="1">
-      <c r="A61" s="71"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="86"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="74"/>
       <c r="E61" s="17">
         <v>15</v>
       </c>
       <c r="F61" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G61" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="H61" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G61" s="39" t="s">
+      <c r="I61" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="H61" s="35" t="s">
+      <c r="J61" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="I61" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="J61" s="39" t="s">
+      <c r="K61" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="L61" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="K61" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="L61" s="39" t="s">
-        <v>114</v>
-      </c>
       <c r="M61" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="35" customHeight="1" thickBot="1">
-      <c r="A62" s="71"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="86"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="74"/>
       <c r="E62" s="42" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="I62" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="J62" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="G62" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="H62" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="I62" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="J62" s="54" t="s">
+      <c r="K62" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="L62" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K62" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="L62" s="54" t="s">
-        <v>117</v>
-      </c>
       <c r="M62" s="55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N62" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="16" thickBot="1">
-      <c r="A63" s="71"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="86"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="74"/>
       <c r="E63" s="17">
         <v>13</v>
       </c>
       <c r="F63" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="G63" s="34" t="s">
+      <c r="H63" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I63" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="H63" s="34" t="s">
+      <c r="J63" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I63" s="34" t="s">
+      <c r="K63" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="J63" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="K63" s="34" t="s">
+      <c r="L63" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="L63" s="34" t="s">
+      <c r="M63" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="M63" s="34" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="64" spans="1:14" ht="16" thickBot="1">
-      <c r="A64" s="71"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="86"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="74"/>
       <c r="E64" s="17">
         <v>14</v>
       </c>
       <c r="F64" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H64" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="I64" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="J64" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="I64" s="29" t="s">
+      <c r="K64" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="J64" s="29" t="s">
+      <c r="L64" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="29" t="s">
+      <c r="M64" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="L64" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="M64" s="29" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="65" spans="1:16" ht="16" thickBot="1">
-      <c r="A65" s="73"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="87"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="75"/>
       <c r="E65" s="18">
         <v>15</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G65" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H65" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="I65" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="I65" s="35" t="s">
-        <v>130</v>
-      </c>
       <c r="J65" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L65" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="K65" s="31" t="s">
+      <c r="M65" s="31" t="s">
         <v>120</v>
-      </c>
-      <c r="L65" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="M65" s="31" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="16" thickBot="1"/>
     <row r="70" spans="1:16" ht="38" customHeight="1" thickBot="1">
       <c r="E70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="F70" s="81" t="s">
+      <c r="G70" s="103"/>
+      <c r="H70" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="G70" s="82"/>
-      <c r="H70" s="81" t="s">
+      <c r="I70" s="103"/>
+      <c r="J70" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="I70" s="82"/>
-      <c r="J70" s="81" t="s">
+      <c r="K70" s="103"/>
+      <c r="L70" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="K70" s="82"/>
-      <c r="L70" s="81" t="s">
+      <c r="M70" s="103"/>
+      <c r="N70" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="M70" s="82"/>
-      <c r="N70" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="O70" s="82"/>
+      <c r="O70" s="103"/>
     </row>
     <row r="71" spans="1:16" ht="80" thickBot="1">
-      <c r="A71" s="68" t="s">
+      <c r="A71" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="68"/>
+      <c r="B71" s="98"/>
       <c r="C71" s="3" t="s">
         <v>5</v>
       </c>
@@ -3780,133 +3774,133 @@
       <c r="O72" s="32"/>
     </row>
     <row r="73" spans="1:16" ht="16" thickBot="1">
-      <c r="A73" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="75" t="s">
+      <c r="A73" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="99"/>
+      <c r="C73" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="78" t="s">
+      <c r="D73" s="76" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="16">
         <v>25</v>
       </c>
       <c r="F73" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H73" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="I73" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="K73" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="L73" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="M73" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G73" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="H73" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I73" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="J73" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="K73" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="L73" s="36" t="s">
+      <c r="N73" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="M73" s="36" t="s">
+      <c r="O73" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="N73" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="O73" s="36" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="74" spans="1:16" ht="16" thickBot="1">
-      <c r="A74" s="71"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="79"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="77"/>
       <c r="E74" s="17">
         <v>26</v>
       </c>
       <c r="F74" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="G74" s="36" t="s">
+      <c r="I74" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="H74" s="36" t="s">
+      <c r="J74" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="I74" s="36" t="s">
+      <c r="K74" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="J74" s="36" t="s">
+      <c r="L74" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="K74" s="36" t="s">
+      <c r="M74" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="L74" s="36" t="s">
+      <c r="N74" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="M74" s="36" t="s">
+      <c r="O74" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="N74" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="O74" s="36" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="75" spans="1:16" ht="16" thickBot="1">
-      <c r="A75" s="71"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="79"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="77"/>
       <c r="E75" s="17">
         <v>27</v>
       </c>
       <c r="F75" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="G75" s="39" t="s">
+      <c r="I75" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="H75" s="39" t="s">
+      <c r="J75" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="I75" s="39" t="s">
+      <c r="K75" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="J75" s="39" t="s">
+      <c r="L75" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="K75" s="39" t="s">
+      <c r="M75" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="L75" s="39" t="s">
+      <c r="N75" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="M75" s="39" t="s">
+      <c r="O75" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="N75" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="O75" s="39" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="76" spans="1:16" ht="41" customHeight="1" thickBot="1">
-      <c r="A76" s="71"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="79"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="77"/>
       <c r="E76" s="42" t="s">
         <v>2</v>
       </c>
@@ -3945,157 +3939,157 @@
       </c>
     </row>
     <row r="77" spans="1:16" ht="16" thickBot="1">
-      <c r="A77" s="71"/>
-      <c r="B77" s="72"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="79"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="77"/>
       <c r="E77" s="17">
         <v>25</v>
       </c>
       <c r="F77" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="I77" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="J77" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="G77" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="H77" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="J77" s="34" t="s">
+      <c r="K77" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="K77" s="34" t="s">
+      <c r="L77" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="L77" s="34" t="s">
+      <c r="M77" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="M77" s="34" t="s">
+      <c r="N77" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="N77" s="34" t="s">
+      <c r="O77" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="O77" s="34" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="78" spans="1:16" ht="16" thickBot="1">
-      <c r="A78" s="71"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="79"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="77"/>
       <c r="E78" s="17">
         <v>26</v>
       </c>
       <c r="F78" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G78" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G78" s="34" t="s">
+      <c r="H78" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="H78" s="34" t="s">
+      <c r="I78" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="I78" s="34" t="s">
-        <v>183</v>
-      </c>
       <c r="J78" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K78" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="K78" s="34" t="s">
+      <c r="L78" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="L78" s="34" t="s">
+      <c r="M78" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="M78" s="34" t="s">
+      <c r="N78" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="N78" s="34" t="s">
+      <c r="O78" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="O78" s="34" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="79" spans="1:16" ht="16" thickBot="1">
-      <c r="A79" s="73"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="80"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="78"/>
       <c r="E79" s="18">
         <v>27</v>
       </c>
       <c r="F79" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="G79" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="G79" s="35" t="s">
+      <c r="H79" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="H79" s="35" t="s">
+      <c r="I79" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="I79" s="35" t="s">
+      <c r="J79" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="J79" s="35" t="s">
+      <c r="K79" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="K79" s="35" t="s">
+      <c r="L79" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="L79" s="35" t="s">
+      <c r="M79" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="M79" s="35" t="s">
+      <c r="N79" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="N79" s="35" t="s">
+      <c r="O79" s="35" t="s">
         <v>201</v>
-      </c>
-      <c r="O79" s="35" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="16" thickBot="1"/>
     <row r="84" spans="1:18" ht="19" thickBot="1">
       <c r="E84" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F84" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="G84" s="82"/>
-      <c r="H84" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="G84" s="103"/>
+      <c r="H84" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="I84" s="103"/>
+      <c r="J84" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="K84" s="103"/>
+      <c r="L84" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="I84" s="82"/>
-      <c r="J84" s="81" t="s">
-        <v>204</v>
-      </c>
-      <c r="K84" s="82"/>
-      <c r="L84" s="81" t="s">
+      <c r="M84" s="103"/>
+      <c r="N84" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="M84" s="82"/>
-      <c r="N84" s="81" t="s">
+      <c r="O84" s="103"/>
+      <c r="P84" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="O84" s="82"/>
-      <c r="P84" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q84" s="82"/>
+      <c r="Q84" s="103"/>
     </row>
     <row r="85" spans="1:18" ht="80" thickBot="1">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="68"/>
+      <c r="B85" s="98"/>
       <c r="C85" s="3" t="s">
         <v>5</v>
       </c>
@@ -4157,151 +4151,151 @@
       <c r="Q86" s="32"/>
     </row>
     <row r="87" spans="1:18" ht="16" thickBot="1">
-      <c r="A87" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="75" t="s">
+      <c r="A87" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" s="99"/>
+      <c r="C87" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="78" t="s">
+      <c r="D87" s="76" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="16">
         <v>22</v>
       </c>
       <c r="F87" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="H87" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="G87" s="36" t="s">
+      <c r="I87" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="H87" s="36" t="s">
+      <c r="J87" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="I87" s="36" t="s">
+      <c r="K87" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="J87" s="36" t="s">
+      <c r="L87" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="K87" s="36" t="s">
+      <c r="M87" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="L87" s="36" t="s">
+      <c r="N87" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="M87" s="36" t="s">
+      <c r="O87" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="N87" s="36" t="s">
+      <c r="P87" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="O87" s="36" t="s">
+      <c r="Q87" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="P87" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q87" s="36" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="88" spans="1:18" ht="16" thickBot="1">
-      <c r="A88" s="71"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="79"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="77"/>
       <c r="E88" s="17">
         <v>23</v>
       </c>
       <c r="F88" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="G88" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="H88" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="G88" s="36" t="s">
+      <c r="I88" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="H88" s="36" t="s">
+      <c r="J88" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="I88" s="36" t="s">
+      <c r="K88" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="J88" s="36" t="s">
+      <c r="L88" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="K88" s="36" t="s">
+      <c r="M88" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="L88" s="36" t="s">
+      <c r="N88" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="M88" s="36" t="s">
+      <c r="O88" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="N88" s="36" t="s">
+      <c r="P88" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="O88" s="36" t="s">
+      <c r="Q88" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="P88" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q88" s="36" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="89" spans="1:18" ht="16" thickBot="1">
-      <c r="A89" s="71"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="79"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="77"/>
       <c r="E89" s="17">
         <v>24</v>
       </c>
       <c r="F89" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="G89" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="H89" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="G89" s="58" t="s">
+      <c r="I89" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="H89" s="39" t="s">
+      <c r="J89" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="I89" s="39" t="s">
+      <c r="K89" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="J89" s="39" t="s">
+      <c r="L89" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="K89" s="58" t="s">
+      <c r="M89" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="L89" s="39" t="s">
+      <c r="N89" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="M89" s="39" t="s">
+      <c r="O89" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="N89" s="39" t="s">
+      <c r="P89" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="O89" s="39" t="s">
+      <c r="Q89" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="P89" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q89" s="39" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="90" spans="1:18" ht="41" customHeight="1" thickBot="1">
-      <c r="A90" s="71"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="79"/>
+      <c r="A90" s="68"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="77"/>
       <c r="E90" s="42" t="s">
         <v>2</v>
       </c>
@@ -4346,162 +4340,153 @@
       </c>
     </row>
     <row r="91" spans="1:18" ht="16" thickBot="1">
-      <c r="A91" s="71"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="79"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="77"/>
       <c r="E91" s="17">
         <v>22</v>
       </c>
-      <c r="F91" s="34" t="s">
-        <v>245</v>
+      <c r="F91" s="108" t="s">
+        <v>208</v>
       </c>
       <c r="G91" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H91" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I91" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="H91" s="40" t="s">
+      <c r="J91" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="I91" s="40" t="s">
+      <c r="K91" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="J91" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="K91" s="40" t="s">
-        <v>217</v>
-      </c>
       <c r="L91" s="34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M91" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="N91" s="34" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="N91" s="108" t="s">
+        <v>212</v>
       </c>
       <c r="O91" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P91" s="34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q91" s="34" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="16" thickBot="1">
-      <c r="A92" s="71"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="79"/>
+      <c r="A92" s="68"/>
+      <c r="B92" s="100"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="77"/>
       <c r="E92" s="17">
         <v>23</v>
       </c>
       <c r="F92" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="G92" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="H92" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="G92" s="40" t="s">
+      <c r="I92" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="H92" s="40" t="s">
+      <c r="J92" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="I92" s="40" t="s">
+      <c r="K92" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="J92" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="K92" s="40" t="s">
-        <v>229</v>
-      </c>
       <c r="L92" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M92" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="N92" s="40" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="N92" s="108" t="s">
+        <v>224</v>
       </c>
       <c r="O92" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P92" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q92" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="Q92" s="34" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="93" spans="1:18" ht="16" thickBot="1">
-      <c r="A93" s="73"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="77"/>
-      <c r="D93" s="80"/>
+      <c r="A93" s="69"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="78"/>
       <c r="E93" s="18">
         <v>24</v>
       </c>
       <c r="F93" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H93" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="G93" s="41" t="s">
+      <c r="I93" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="H93" s="41" t="s">
+      <c r="J93" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="I93" s="41" t="s">
+      <c r="K93" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="J93" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="K93" s="41" t="s">
-        <v>241</v>
-      </c>
       <c r="L93" s="35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M93" s="35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N93" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O93" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P93" s="35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q93" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="D17:D25"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="D4:D12"/>
-    <mergeCell ref="C4:C12"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A87:B93"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="D87:D93"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A73:B79"/>
@@ -4518,17 +4503,26 @@
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="J56:K56"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A87:B93"/>
-    <mergeCell ref="C87:C93"/>
-    <mergeCell ref="D87:D93"/>
-    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="D4:D12"/>
+    <mergeCell ref="C4:C12"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="D17:D25"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4564,102 +4558,102 @@
     <row r="1" spans="1:9" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="61"/>
       <c r="B1" s="62" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C1" s="60"/>
       <c r="E1" s="61"/>
       <c r="F1" s="62" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G1" s="60"/>
       <c r="I1" s="62" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C2" s="63">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G2" s="63">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C3" s="63">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="G3" s="63">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C4" s="63">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="G4" s="63">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C5" s="63">
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G5" s="63">
         <v>2</v>
@@ -4667,19 +4661,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C6" s="63">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G6" s="63">
         <v>3</v>
@@ -4687,19 +4681,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C7" s="63">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G7" s="63">
         <v>4</v>
@@ -4707,65 +4701,65 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C8" s="63">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G8" s="63">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C9" s="63">
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G9" s="63">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C10" s="63">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G10" s="63">
         <v>7</v>
@@ -4773,19 +4767,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C11" s="63">
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G11" s="63">
         <v>1</v>
@@ -4793,19 +4787,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C12" s="63">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G12" s="63">
         <v>2</v>
@@ -4813,19 +4807,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C13" s="63">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G13" s="63">
         <v>3</v>
@@ -4833,7 +4827,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="I14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4851,7 +4845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
@@ -4866,67 +4860,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
